--- a/Traduzido/PTBR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Data/chara_talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B9B91-7C5A-462E-9548-BFABC91DD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD0B124-C97F-4B0F-BDBE-5AD6CB17DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -276,17 +276,6 @@
     <t>drunk_cat</t>
   </si>
   <si>
-    <t>Vrei sa pleci dar♪
-Numa numa yay!!"
-Numa numa numa yay!!
-Hello♪
-Alone♪
-Aaron♪
-Mai-Ya-Hi♪
-Mai-Ya-Hoo♪
-Mai-Ya-Ha Ma Mi A♪</t>
-  </si>
-  <si>
     <t>drunk_counter</t>
   </si>
   <si>
@@ -447,12 +436,6 @@
   </si>
   <si>
     <t>Champanhe! Champanhe!</t>
-  </si>
-  <si>
-    <t>Você realmente dá trabalho._x000D_
-Acho que não tenho escolha._x000D_
-Só desta vez, ok?_x000D_
-Suspiro...</t>
   </si>
   <si>
     <t>Satisfeito?_x000D_
@@ -477,36 +460,6 @@
 Aqui vamos nós!_x000D_
 Zoom!_x000D_
 Estamos indo!</t>
-  </si>
-  <si>
-    <t>(Sussurro)_x000D_
-(Murmúrio)_x000D_
-Ah, meu Deus!_x000D_
-Esplêndido!_x000D_
-Me abrace!_x000D_
-Olha isso!_x000D_
-Uau!_x000D_
-Um herói!_x000D_
-Por favor, assine para mim!_x000D_
-Incrível!_x000D_
-Uhuu!_x000D_
-Viva.</t>
-  </si>
-  <si>
-    <t>(Sussurro)_x000D_
-(Murmúrio)_x000D_
-Escória._x000D_
-Eca._x000D_
-Ah, meu Deus!_x000D_
-Que vergonha!_x000D_
-Como você ousa._x000D_
-Fique longe!_x000D_
-Não olhe._x000D_
-Boo-boo!_x000D_
-Oh... o infame..._x000D_
-O mundo está perdido._x000D_
-Seu canalha._x000D_
-Onde estão os guardas?</t>
   </si>
   <si>
     <t>Certo._x000D_
@@ -551,16 +504,6 @@
 Obrigado, anjo.</t>
   </si>
   <si>
-    <t>Ah...!
-Ah!
-Ahh!
-Ah... ah...!
-Mais... mais...
-Ahhh!
-Não... não... pare...!
-Oh sim!</t>
-  </si>
-  <si>
     <t>Está quente!
 Muito quente!
 Estou queimando!
@@ -583,21 +526,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vamos comerammoth.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que pervertido.  _x000D_
-Seu lixo.  _x000D_
-Você é um caso perdido.  _x000D_
-Você gosta de ser insultado...?  _x000D_
-Nojento.  _x000D_
-Seu porco!  _x000D_
-Pervertido.  _x000D_
-Por que você não morre?  _x000D_
-Por favor, morra.  _x000D_
-Lixo♪  _x000D_
-Caracol assustador.  _x000D_
-Quer ser picado em pedacinhos?  _x000D_
-Que caracol patético.  </t>
   </si>
   <si>
     <t xml:space="preserve">Você é um fracasso!  _x000D_
@@ -636,24 +564,9 @@
 Aqui vamos nós.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Bem-vindo de volta!  _x000D_
-Bem-vindo ao lar.  _x000D_
-Onde você esteve?  _x000D_
-Há quanto tempo.  _x000D_
-Faz um tempo, não é?  _x000D_
-Bem-vindoy.  _x000D_
-Como foi sua jornada?  _x000D_
-Sinta-se em casa.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">De jeito nenhum.  _x000D_
 Eu não quero.  _x000D_
 Nunca!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(...#1! ...#1!)  
-(#1...)  
-(Por favor...#1...)  </t>
   </si>
   <si>
     <t xml:space="preserve">Seu ganancioso!  
@@ -673,13 +586,6 @@
   <si>
     <t xml:space="preserve">Gyaaaaa...!  _x000D_
 Ugh!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu-eu me sinto... estranho...  _x000D_
-Uh..uh.. O que é essa sensação...?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uh...!  </t>
   </si>
   <si>
     <t xml:space="preserve">Seu desgraçado!  _x000D_
@@ -710,15 +616,6 @@
 Meu corpo está doendo.  _x000D_
 Não aguento mais!  _x000D_
 Isso é difícil demais!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu estou aqui...  _x000D_
-Ah, que maravilha!  _x000D_
-É hora de se divertir.  _x000D_
-Não, não, você entendeu tudo errado!  _x000D_
-Meu corpo... está pegando fogo...!  _x000D_
-Ei...  _x000D_
-Isso aí, baby!  </t>
   </si>
   <si>
     <t xml:space="preserve">Ugh...  </t>
@@ -748,12 +645,6 @@
 Por quê...  
 Isso não pode estar acontecendo!  
 Inútil.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quem jogou esse lixo fora?  
-Um lixo.  
-Limpando♪  
-O que é isso?  </t>
   </si>
   <si>
     <t xml:space="preserve">Você está brincando?  
@@ -807,25 +698,6 @@
     <t xml:space="preserve">Tudo bem, vou dar o meu melhor para não te decepcionar.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Weeeeeee!  _x000D_
-Perdão! Perdão!  _x000D_
-P-P-Pika!  _x000D_
-Shhhhhh!  _x000D_
-Seu lesma!  _x000D_
-Eu vou matar todos eles.  _x000D_
-Ofereçam suas vidas!  _x000D_
-Kwah.  _x000D_
-Shaaaaa.  _x000D_
-Bubuhu!  _x000D_
-Hoo-ha-ha!  _x000D_
-Ah, ah, ah.  _x000D_
-Seu verme.  _x000D_
-Senta!  _x000D_
-Desculpa, desculpa!  _x000D_
-Oozhimushi... oozhimushi...  _x000D_
-Então temos que matá-lo. É...   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vamos coletar mais fichas.  
 Você chama isso de Tesouro?  
 Eu adoraria ver mais!  </t>
@@ -913,59 +785,6 @@
 Bela canção.</t>
   </si>
   <si>
-    <t>Oh Deus!  
-#1！#1！  
-Por favor, receba  
-Eu lhe ofereço  
-Senhor...  
-#1, ó Deus de #2</t>
-  </si>
-  <si>
-    <t>Com licença.  
-Obrigado(a)♪  
-Conto com você.  
-Bem então…</t>
-  </si>
-  <si>
-    <t>Se controla!  
-Ugh!  
-Não fuja!  
-Argh!  
-Arrrrrgggghh!  
-Gah!  
-Ei!  
-Morra!  
-Não por aí!  
-*estalido*  
-De novo isso?  
-O que você quer, hein?  
-De jeito nenhum!  
-Sério?  
-O quê?  
-Nãoo...  
-Nãooooo...  
-Shhh...!  
-Ughhh...  
-Não se mexa!  
-Não!  
-Não não não!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phew...  _x000D_
-Eu gostei♪  _x000D_
-Me deixe montar de novo algum dia.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei!  _x000D_
-Oi.  _x000D_
-O quê.  _x000D_
-Uh.  _x000D_
-Aff.  _x000D_
-Meu Deus.  _x000D_
-Cuidado.  _x000D_
-Olha por onde anda.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Seu pervertido!  _x000D_
 Me solte!  </t>
   </si>
@@ -976,69 +795,8 @@
 Seja gentil♪  </t>
   </si>
   <si>
-    <t xml:space="preserve">Phew.  _x000D_
-O que achou da minha montaria?  _x000D_
-Cansado... cansado...  _x000D_
-Monte de novo quando quiser♪  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quero levar uma vida decente, mesmo nesses tempos.  _x000D_
 Estou tão entediado(a)!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei!  _x000D_
-Oi.  _x000D_
-O quê.  _x000D_
-Uh.  _x000D_
-Aff.  _x000D_
-Meu Deus.  _x000D_
-Cuidado.  _x000D_
-Olha por onde anda.  _x000D_
-Pare com isso!  _x000D_
-Tenha cuidado!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*zzz*  _x000D_
-*zzz...*  _x000D_
-*ZZZ*  _x000D_
-*zzzz...*  _x000D_
-*ZZZZ..*  _x000D_
-*ronco*  _x000D_
-*zzzz*  _x000D_
-(...não posso... comer mais)  _x000D_
-(...desculpa... desculpa...)  _x000D_
-(...uau)  _x000D_
-(...não... pare!)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesma!  _x000D_
-Matar!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*risada*  _x000D_
-*sorriso*  _x000D_
-Ei!  _x000D_
-Tee-hee-hee!  _x000D_
-Você vai pagar por isso.  _x000D_
-Agora você fez.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*sorriso*  _x000D_
-Tome essa!  _x000D_
-Scut!  _x000D_
-Tee-hee-hee!  _x000D_
-Cuidado!  _x000D_
-Fogo na área!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O quê?  _x000D_
-Hã?  _x000D_
-...?  _x000D_
-Você precisa de algo?  _x000D_
-O que você quer?  _x000D_
-E aí?  _x000D_
-Algo errado?  _x000D_
-O que foi?  </t>
   </si>
   <si>
     <t xml:space="preserve">pc,human  </t>
@@ -1052,32 +810,10 @@
 Isso aí, baby!  </t>
   </si>
   <si>
-    <t xml:space="preserve">Você é incrível!  _x000D_
-Meu Deus...  _x000D_
-Ok, ok, você venceu!  _x000D_
-Santo...!  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pegue este dinheiro, é tudo o que tenho!  </t>
   </si>
   <si>
     <t xml:space="preserve">Aqui, pegue isso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N...não!  _x000D_
-Sim!  _x000D_
-P...pare!  _x000D_
-Uau.  _x000D_
-Vamos lá.  _x000D_
-Oh meu...  _x000D_
-Não olhe!  _x000D_
-Desculpa, querido(a)...  _x000D_
-Não! Não! Não... oh sim!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obrigado(a).  _x000D_
-Obrigado(a)!  _x000D_
-Agradeço.  </t>
   </si>
   <si>
     <t xml:space="preserve">Se você insiste.  _x000D_
@@ -1086,72 +822,16 @@
 Hã?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Isto é... Obrigado(a)!  _x000D_
-Meu Deus, obrigado(a)!  _x000D_
-Brilhante!  _x000D_
-Isso fez meu dia. Obrigado(a).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olá  _x000D_
-Bom dia  _x000D_
-Salve  _x000D_
-Prazer em conhecer  _x000D_
-Então este é o lugar  _x000D_
-Alguém aí?  _x000D_
-De novo  _x000D_
-Hã  _x000D_
-Aqui vou eu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tchau  _x000D_
-Eu voltarei  _x000D_
-Está na hora  _x000D_
-Adeus  _x000D_
-Até mais  _x000D_
-Até logo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu Deus!  _x000D_
-Por favor, poupe minha vida!  _x000D_
-Mas o quê...  _x000D_
-Isso é um engano!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heave ho!  _x000D_
-Lá vamos nós.  _x000D_
-Um, dois.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Uh-huh.  _x000D_
 Interessante.  _x000D_
 Ah, entendi!  </t>
   </si>
   <si>
-    <t xml:space="preserve">Uau!  _x000D_
-Phew.  _x000D_
-Isso é o melhor!  _x000D_
-Que coisa incrível...  _x000D_
-Eu sabia.  _x000D_
-É...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu não gosto de multidões.  _x000D_
-Me deixe em paz.  _x000D_
-Por que vocês estão tão ansiosos para se intrometer? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Espero que alguém me encontre.  _x000D_
 Estou sozinho, muito sozinho. Quero ser especial para alguém.  _x000D_
 Quero ser protegido.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Eu queria poder viver sem machucar ninguém.  _x000D_
-Parei de lutar contra o demônio dentro de mim.  _x000D_
-O mundo é um sonho que os mortos veem.  _x000D_
-Guardei minhas emoções tão bem que agora esqueci onde as deixei.  _x000D_
-Este mundo é cruel e, ao mesmo tempo, tão bonito. </t>
-  </si>
-  <si>
     <t>Haha, que buraco imundo.  _x000D_
 Eu não trabalho nem um pouco. Isso é um problema?  _x000D_
 Sou um pedaço de lixo. Isso é ruim?</t>
@@ -1162,85 +842,15 @@
 O mundo está cheio de amor!  </t>
   </si>
   <si>
-    <t xml:space="preserve">Minha vida foi um lixo!  _x000D_
-Espero que os humanos pereçam.  _x000D_
-Que tipo de futuro resta para este planeta?  _x000D_
-Não tenho esperança.  _x000D_
-Todos os dias eu rezo para que uma guilhotina caia do céu sobre mim.  _x000D_
-Olha, eu estou cansado.  _x000D_
-Espero que todos que são mais felizes do que eu pereçam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A culpa é dos enganados.  _x000D_
-Ah, um bando de idiotas com suas caras estúpidas.  _x000D_
-É divertido imaginar coisas más, não é?  _x000D_
-Que se dane a lei!  _x000D_
-O que você está olhando?  _x000D_
-Quem diabos você pensa que é?  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ahahahaha!  
 Oh! Aquele ali! Ei! Ahaha!  
 A-ha-ha! Ha-ha! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu sei que você quer o meu corpo.  _x000D_
-Agora rasteje e lamba minhas botas!  _x000D_
-Quer mais agrados? Oh, seu porco nojento e repulsivo!  _x000D_
-Grite mais alto!  _x000D_
-Oh, esse, esse aí é um garoto realmente perturbado!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que é a mente? Uma máquina tem mente?  _x000D_
-Quem age antes de pensar não passa de uma besta.  _x000D_
-O que existe geralmente é melhor do que boas intenções.  _x000D_
-Sou uma besta faminta por significado.  _x000D_
-Como a luz do dia pode compreender a profundidade da escuridão da noite?  _x000D_
-Eu busco a história única.  </t>
   </si>
   <si>
     <t xml:space="preserve">Nada está errado! Nada é impossível!  _x000D_
 Não há motivo para se preocupar. Vamos nos divertir!  _x000D_
 Eu estou sempre feliz!  _x000D_
 Por que você me olha assim, haha?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, meu Deus, é #aka!  _x000D_
-Oh, céus!  _x000D_
-Oh, oh, estou lisonjeado, querido(a)!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O único momento em que se pode ser corajoso é quando se está com medo.  _x000D_
-Devemos ajudar os fracos e viver com eles.  _x000D_
-Sempre serei fiel à verdade e ao juramento que fiz.  _x000D_
-Pela minha honra, irei proteger aqueles que me são queridos!  </t>
-  </si>
-  <si>
-    <t>Mentiras, mentiras, tudo isso são mentiras!  _x000D_
-Você também vai me trair um dia, eu sei!  _x000D_
-Só quero viver uma vida tranquila, mas todos sempre atrapalham.  _x000D_
-Eu não sei mais de nada.  _x000D_
-Me deixe em paz.  _x000D_
-Você é o diabo! Eu não fui enganado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oi, meus fãs, sou eu, #me!  _x000D_
-Ei, sou eu, #me, o ídolo de todos!  _x000D_
-Oh, meu Deus, eu quero ser uma garota normal de novo!  _x000D_
-Os seus sorrisos são o meu poder!  _x000D_
-Quero fazer todos os meus fãs felizes!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não há salvação para minha alma errante.  _x000D_
-Oh, Deus, é esse o julgamento que me deste?  _x000D_
-Irás me libertar da minha condenação eterna?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agora que estou aqui, tudo ficará bem!  _x000D_
-Não há com o que se preocupar.  _x000D_
-Nenhum problema!  _x000D_
-Estou bem aqui se precisar de algo!  _x000D_
-Tudo está certo, é claro!  </t>
   </si>
   <si>
     <t xml:space="preserve">Eu queria ter coragem para mudar o que precisa ser mudado.  
@@ -1303,21 +913,411 @@
 Este é o fim!</t>
   </si>
   <si>
-    <t>Meteoro!
-Chovam, lágrimas das estrelas!
-Venha, chama do fim. &amp;...Meteoro!
-Estrelas, atendam à minha voz...Meteoro!
-Não há mais desejos neste céu, &amp;nem misericórdia nesta terra. &amp;—então caiam! Meteoro!</t>
-  </si>
-  <si>
     <t>Ba～rril♪
 Barril!
 Barri~l!
 Barril.</t>
   </si>
   <si>
+    <t>(Sussurro)
+(Murmúrio)
+Ah, meu Deus!
+Esplêndido!
+Me abrace!
+Olha isso!
+Uau!
+Um herói!
+Por favor, assine para mim!
+Incrível!
+Uhuu!
+Viva.</t>
+  </si>
+  <si>
+    <t>(Sussurro)
+(Murmúrio)
+Escória.
+Eca.
+Ah, meu Deus!
+Que vergonha!
+Como você ousa.
+Fique longe!
+Não olhe.
+Boo-boo!
+Oh... o infame...
+O mundo está perdido.
+Seu canalha.
+Onde estão os guardas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*zzz*  
+*zzz...*  
+*ZZZ*  
+*zzzz...*  
+*ZZZZ..*  
+*ronco*  
+*zzzz*  
+(...  Não consigo... Comer mais)  
+(... Desculpa... Desculpa...)  
+(... Uau)  
+(... Não... Pare!)  </t>
+  </si>
+  <si>
+    <t>Você realmente dá trabalho.
+Acho que não tenho escolha.
+Só desta vez, ok?
+*Suspiro*...</t>
+  </si>
+  <si>
+    <t>Ah...!
+Ah!
+Ahh!
+Ah... Ah...!
+Mais... Mais...
+Ahhh!
+Não... Não... Pare...!
+Oh sim!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que pervertido.  
+Seu lixo.  
+Você é um caso perdido.  
+Você gosta de ser insultado... ?  
+Nojento.  
+Seu porco!  
+Pervertido.  
+Por que você não morre?  
+Por favor, morra.  
+Lixo♪  
+Caracol assustador.  
+Quer ser picado em pedacinhos?  
+Que caracol patético.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem vindo de volta!  
+Bem vindo de volta ao lar.  
+Onde você esteve?  
+Há quanto tempo.  
+Faz um tempo, não é?  
+Bem vindo.  
+Como foi sua jornada?  
+Sinta-se em casa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(... #1!...  #1!)  
+(#1...)  
+(Por favor... #1...)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu-eu me sinto... Estranho...  
+Uh.. Uh.. O que é essa sensação...?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh... !  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu estou aqui...  
+Ah, que maravilha!  
+É hora de se divertir.  
+Não, não, você entendeu tudo errado!  
+Meu corpo... Está pegando fogo... !  
+Ei...  
+Isso aí, baby!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem jogou esse lixo fora?  
+Um lixo.  
+Limpando, limpando♪  
+O que é isso?  </t>
+  </si>
+  <si>
+    <t>Você quer ir, mas♪
+Numa numa yay!!
+Numa numa numa yay!!
+Olá♪
+Solidão♪
+Aaron♪
+Mai-Ya-Hi♪
+Mai-Ya-Hoo♪
+Mai-Ya-Ha Ma Mi A♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeeeeee!  
+Perdão! Perdão!  
+P-P-Pika!  
+Shhhhhh!  
+Seu lesma!  
+Eu vou matar todos eles.  
+Ofereçam suas vidas!  
+Kwah.  
+Shaaaaa.  
+Bubuhu!  
+Hoo-ha-ha!  
+Ah, ah, ah.  
+Seu verme.  
+Senta!  
+Desculpa, desculpa!  
+Vermes! Vermes!
+Então teremos que matá-lo. Vai ser isso...   </t>
+  </si>
+  <si>
+    <t>Oh Deus!  
+#1! #1!  
+Por favor, receba.
+Eu lhe ofereço..
+Senhor...  
+#1, ó Deus de #2</t>
+  </si>
+  <si>
+    <t>Com licença.  
+Obrigado(a)♪  
+Conto com você.  
+Bom, então...</t>
+  </si>
+  <si>
+    <t>Se controla!  
+Ugh!  
+Não fuja!  
+Argh!  
+Arrrrrgggghh!  
+Gah!  
+Ei!  
+Morra!  
+Por aí não!  
+*estalido*  
+De novo isso?  
+O que você quer, hein?  
+De jeito nenhum!  
+Sério?  
+O quê?  
+Nãoo...  
+Nãooooo...  
+Shhh...!  
+Ughhh...  
+Não se mexa!  
+Não!  
+Não, não e não!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phew...  
+Eu gostei♪  
+Me deixe montar de novo algum dia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei!  
+Oi.  
+O quê?
+Uh.  
+Aff.  
+Meu Deus.  
+Cuidado.  
+Olha por onde anda.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phew.  
+O que achou da minha montaria?  
+Cansado... Estou cansado...  
+Monte de novo quando quiser♪  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não gosto de multidões.  
+Me deixe em paz.  
+Por que vocês estão tão ansiosos para se intrometer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu queria poder viver sem machucar ninguém.  
+Parei de lutar contra o demônio dentro de mim.  
+O mundo é um sonho que os mortos sonham em viver.  
+Guardei minhas emoções tão bem que agora esqueci onde as deixei.  
+Este mundo é cruel e, ao mesmo tempo, tão bonito. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha vida foi um lixo!  
+Espero que os humanos pereçam.  
+Que tipo de futuro resta para este planeta?  
+Não tenho esperança.  
+Todos os dias eu rezo para que uma guilhotina caia do céu sobre mim.  
+Olha, eu estou cansado.  
+Espero que todos que são mais felizes do que eu pereçam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A culpa é dos enganados.  
+Ah, um bando de idiotas com suas caras estúpidas.  
+É divertido imaginar coisas más, não é?  
+Que se dane a lei!  
+O que você está olhando?  
+Quem diabos você pensa que é?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sei que você quer o meu corpo.  
+Agora rasteje e lamba minhas botas!  
+Quer mais agrados? Oh, seu porco nojento e repulsivo!  
+Grite mais alto!  
+Oh, esse, esse aí é um garoto realmente perturbado!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a mente? Uma máquina tem uma?
+Quem age antes de pensar não passa de uma besta.  
+O lógica geralmente é melhor do que boas intenções.  
+Sou uma besta faminta por significado.
+Como a luz do dia pode compreender a profundidade da escuridão da noite? 
+Eu busco uma história única.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, meu Deus, é o/a #aka!  
+Oh, céus!  
+Estou lisonjeada(o), querido(a)!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O único momento em que se pode ser corajoso é quando se está com medo.  
+Devemos ajudar os fracos, e viver com eles.  
+Sempre serei fiel à verdade e ao juramento que fiz.  
+Pela minha honra, irei proteger aqueles que me são queridos!  </t>
+  </si>
+  <si>
+    <t>Mentiras, mentiras, tudo isso são mentiras!  
+Você também vai me trair um dia, eu sei!  
+Só quero viver uma vida tranquila, mas todos sempre atrapalham.  
+Eu não sei mais de nada.  
+Me deixe em paz.  
+Você é o diabo! Eu não fui enganado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oi, meus fãs, sou eu, #me!  
+Ei, sou eu, #me, o/a ídolo de todos!  
+Oh, meu Deus, eu quero ser um/uma garoto(a) normal de novo!  
+O poder que me move vem do teu sorriso.
+Quero tornar todos os meus fãs, pessoas felizes!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há salvação para minha alma errante.  
+Oh, Deus, é esse o julgamento que me deste?  
+Irás me libertar da minha condenação eterna?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agora que estou aqui, tudo ficará bem!  
+Não há com o que se preocupar.  
+Nenhum problema!  
+Estou bem aqui se precisar de algo!  
+Está tudo certo, é claro!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei!  
+Oi.  
+O quê?
+Uh.  
+Aff.  
+Meu Deus.  
+Cuidado.  
+Olha por onde anda.  
+Pare com isso!  
+Tenha cuidado!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesma!  
+Vou lhe matar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*risada*  
+*sorriso*  
+Ei!  
+Tee-hee-hee!  
+Você vai pagar por isso.  
+Agora você fez o que não deveria, e vai pagar por isso.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*sorriso*  
+Tome essa!  
+Segura!  
+Tee-hee-hee!  
+Cuidado!  
+Fogo na área!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O quê?  
+Hã?  
+... ?  
+Você precisa de algo?  
+O que você quer?  
+E aí?  
+Algo de errado?  
+O que foi?  </t>
+  </si>
+  <si>
+    <t>Você é incrível!  
+Meu Deus...  
+Ok, ok, você venceu!  
+Meu Deus... !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N... Não!  
+Sim!  
+P-Pare!  
+Uau.  
+Vamos lá.  
+Oh meu...
+Não olhe!  
+Desculpa, querido(a)...  
+Não! Não! Não... Oh sim!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obrigado(a).  
+Valeu!
+Agradeço.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isto é... Obrigado(a)!  
+Meu Deus, obrigado(a)!  
+Brilhante!  
+Isso fez meu dia. Obrigado(a).  </t>
+  </si>
+  <si>
+    <t>Olá!
+Bom dia.
+Salve  
+Prazer em conhecer  
+Então este é o lugar  
+Alguém aí?  
+De novo  
+Hã  
+Aqui vou eu!</t>
+  </si>
+  <si>
+    <t>Tchau.
+Eu voltarei.
+Está na hora.
+Adeus.
+Até mais.
+Até logo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu Deus!  
+Por favor, poupe minha vida!  
+Mas o quê...  
+Isso é um engano!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prontos? Vai! Todo mundo junto!
+Lá vamos nós.  
+Um, dois.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uau!  
+Phew.  
+Isso é o melhor!  
+Que coisa incrível...  
+Eu sabia.  
+É...  </t>
+  </si>
+  <si>
+    <t>Meteoro!
+Chovam, lágrimas das estrelas!
+Venha, chama do fim!
+Estrelas, atendam à minha voz... Meteoro!
+Não há mais desejos neste céu, e nem misericórdia nesta terra — então caiam! Meteoro!</t>
+  </si>
+  <si>
     <t>Enxame!
-...Enxame!
+... Enxame!
 Sumam!
 Gravem isso em suas almas! Enxame!
 Dancem!</t>
@@ -1636,10 +1636,10 @@
   <dimension ref="A1:CM120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -1823,7 +1823,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U4"/>
       <c r="V4"/>
@@ -1859,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3"/>
       <c r="U5"/>
@@ -1896,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="U6"/>
@@ -1933,7 +1933,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3"/>
       <c r="U7"/>
@@ -1970,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3"/>
       <c r="U8"/>
@@ -2007,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3"/>
       <c r="U9"/>
@@ -2044,7 +2044,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -2080,7 +2080,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="U11"/>
       <c r="V11"/>
@@ -2116,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="C12" s="4"/>
       <c r="U12"/>
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
@@ -2189,7 +2189,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3"/>
       <c r="U14"/>
@@ -2226,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -2262,7 +2262,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -2298,7 +2298,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
@@ -2334,7 +2334,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -2370,7 +2370,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C19" s="3"/>
       <c r="U19"/>
@@ -2407,7 +2407,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -2443,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -2479,7 +2479,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
@@ -2515,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
@@ -2551,7 +2551,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -2587,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U25"/>
       <c r="V25"/>
@@ -2623,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
@@ -2659,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
@@ -2695,7 +2695,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
@@ -2731,7 +2731,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="U29"/>
       <c r="V29"/>
@@ -2767,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="U30"/>
       <c r="V30"/>
@@ -2803,7 +2803,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3"/>
       <c r="U31"/>
@@ -2840,7 +2840,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="U32"/>
       <c r="V32"/>
@@ -2876,7 +2876,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U33"/>
       <c r="V33"/>
@@ -2912,7 +2912,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="U34"/>
       <c r="V34"/>
@@ -2948,7 +2948,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -2984,7 +2984,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="U36"/>
       <c r="V36"/>
@@ -3020,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="U37"/>
       <c r="V37"/>
@@ -3056,7 +3056,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -3092,7 +3092,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -3128,7 +3128,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="U40"/>
       <c r="V40"/>
@@ -3164,7 +3164,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -3200,7 +3200,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3"/>
       <c r="U42"/>
@@ -3237,7 +3237,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="U43"/>
       <c r="V43"/>
@@ -3273,7 +3273,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="U44"/>
       <c r="V44"/>
@@ -3309,7 +3309,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U45"/>
       <c r="V45"/>
@@ -3345,7 +3345,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U46"/>
       <c r="V46"/>
@@ -3381,7 +3381,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="U47"/>
       <c r="V47"/>
@@ -3417,7 +3417,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="U48"/>
       <c r="V48"/>
@@ -3453,7 +3453,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -3489,7 +3489,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -3525,7 +3525,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U51"/>
       <c r="V51"/>
@@ -3561,7 +3561,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U52"/>
       <c r="V52"/>
@@ -3597,7 +3597,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U53"/>
       <c r="V53"/>
@@ -3633,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="U54"/>
       <c r="V54"/>
@@ -3702,7 +3702,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -3738,7 +3738,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -3774,7 +3774,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="U58"/>
       <c r="V58"/>
@@ -3810,7 +3810,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
@@ -3846,7 +3846,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="U60"/>
       <c r="V60"/>
@@ -3882,7 +3882,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="U61"/>
       <c r="V61"/>
@@ -3918,7 +3918,7 @@
         <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="U62"/>
       <c r="V62"/>
@@ -3954,7 +3954,7 @@
         <v>80</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="U63"/>
       <c r="V63"/>
@@ -3990,7 +3990,7 @@
         <v>81</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="U64"/>
       <c r="V64"/>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="65" spans="1:48">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="U65"/>
       <c r="V65"/>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="66" spans="1:48" ht="66">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="U66"/>
       <c r="V66"/>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>62</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>62</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="69" spans="1:48">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>62</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>62</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>62</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>62</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="73" spans="1:48" ht="82.5">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="U73"/>
       <c r="V73"/>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="U74"/>
       <c r="V74"/>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="75" spans="1:48" ht="132">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="U75"/>
       <c r="V75"/>
@@ -4419,15 +4419,15 @@
     </row>
     <row r="76" spans="1:48">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:48">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>62</v>
@@ -4435,20 +4435,20 @@
     </row>
     <row r="78" spans="1:48">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:48" ht="280.5">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:48">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>62</v>
@@ -4456,58 +4456,58 @@
     </row>
     <row r="81" spans="1:20" ht="49.5">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="165">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="99">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="49.5">
       <c r="A84" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="82.5">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="99">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="66">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4530,10 +4530,10 @@
     </row>
     <row r="88" spans="1:20" ht="363">
       <c r="A88" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="89" spans="1:20" ht="49.5">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4582,34 +4582,34 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="132">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="33">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="66">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="94" spans="1:20" ht="66">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4658,77 +4658,77 @@
     </row>
     <row r="95" spans="1:20" ht="148.5">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="J95" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="M95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N95" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="O95" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="P95" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="Q95" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="R95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="S95" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P95" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="S95" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="T95" s="3" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="165">
       <c r="A96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="181.5">
       <c r="A97" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>212</v>
@@ -4736,216 +4736,216 @@
     </row>
     <row r="98" spans="1:20" ht="33">
       <c r="A98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="99">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="99">
       <c r="A100" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="132">
       <c r="A101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="99">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="66">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="148.5">
       <c r="A107" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="49.5">
       <c r="A108" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="66">
       <c r="A109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="66">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="148.5">
       <c r="A111" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="99">
       <c r="A112" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:49" ht="66">
       <c r="A113" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:49" ht="49.5">
       <c r="A114" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:49" ht="49.5">
       <c r="A115" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:49" ht="99">
       <c r="A116" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:49" customFormat="1" ht="99">
       <c r="A117" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="118" spans="1:49" customFormat="1" ht="66">
       <c r="A118" s="1" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="119" spans="1:49" customFormat="1" ht="82.5">
       <c r="A119" s="1" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>257</v>
@@ -5023,10 +5023,10 @@
     </row>
     <row r="120" spans="1:49" customFormat="1" ht="49.5">
       <c r="A120" s="1" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
